--- a/3_semester/IT/lab_7/lab_7.xlsx
+++ b/3_semester/IT/lab_7/lab_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SUAI_homework\3_semester\IT\lab_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62970A6-4D38-418D-8880-77C53C2E6E11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0BF0A4-691D-45E2-9DD8-B87CAF41E465}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13845" windowHeight="12795" firstSheet="2" activeTab="3" xr2:uid="{7ADDC1FA-F771-4328-938A-4437BC739656}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13845" windowHeight="12795" activeTab="3" xr2:uid="{7ADDC1FA-F771-4328-938A-4437BC739656}"/>
   </bookViews>
   <sheets>
     <sheet name="Сведения о сотрудниках" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>ФИО</t>
   </si>
@@ -68,13 +68,57 @@
   </si>
   <si>
     <t>Дата приема на работу</t>
+  </si>
+  <si>
+    <t>Премия за стаж</t>
+  </si>
+  <si>
+    <t>Плата за премиальный балл</t>
+  </si>
+  <si>
+    <t>Плата за штрафной балл</t>
+  </si>
+  <si>
+    <t>Смета</t>
+  </si>
+  <si>
+    <t>Премия по баллам</t>
+  </si>
+  <si>
+    <t>Штраф за баллы</t>
+  </si>
+  <si>
+    <t>Итоговая премия</t>
+  </si>
+  <si>
+    <t>без сметы</t>
+  </si>
+  <si>
+    <t>с учетом сметы</t>
+  </si>
+  <si>
+    <t>Плата за год стажа</t>
+  </si>
+  <si>
+    <t>Средняя ЗП</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,17 +145,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -426,7 +498,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,11 +538,17 @@
       <c r="B2">
         <v>101</v>
       </c>
+      <c r="C2" s="2">
+        <f ca="1">DATE(RANDBETWEEN(2018,2022),RANDBETWEEN(1,12),RANDBETWEEN(1,29))</f>
+        <v>44727</v>
+      </c>
       <c r="D2">
-        <v>1001</v>
+        <f ca="1">RANDBETWEEN(10000,80000)</f>
+        <v>58208</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <f ca="1">RANDBETWEEN(4,12)</f>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>501</v>
@@ -483,11 +561,17 @@
       <c r="B3">
         <v>102</v>
       </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C11" ca="1" si="0">DATE(RANDBETWEEN(2018,2022),RANDBETWEEN(1,12),RANDBETWEEN(1,29))</f>
+        <v>43849</v>
+      </c>
       <c r="D3">
-        <v>1002</v>
+        <f t="shared" ref="D3:D11" ca="1" si="1">RANDBETWEEN(10000,80000)</f>
+        <v>29631</v>
       </c>
       <c r="E3">
-        <v>302</v>
+        <f t="shared" ref="E3:E11" ca="1" si="2">RANDBETWEEN(4,12)</f>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>502</v>
@@ -500,11 +584,17 @@
       <c r="B4">
         <v>103</v>
       </c>
+      <c r="C4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43977</v>
+      </c>
       <c r="D4">
-        <v>1003</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>76497</v>
       </c>
       <c r="E4">
-        <v>303</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>503</v>
@@ -517,11 +607,17 @@
       <c r="B5">
         <v>104</v>
       </c>
+      <c r="C5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43612</v>
+      </c>
       <c r="D5">
-        <v>1004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>62180</v>
       </c>
       <c r="E5">
-        <v>304</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>504</v>
@@ -534,11 +630,17 @@
       <c r="B6">
         <v>105</v>
       </c>
+      <c r="C6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43106</v>
+      </c>
       <c r="D6">
-        <v>1005</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>64115</v>
       </c>
       <c r="E6">
-        <v>305</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>505</v>
@@ -551,11 +653,17 @@
       <c r="B7">
         <v>106</v>
       </c>
+      <c r="C7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>44379</v>
+      </c>
       <c r="D7">
-        <v>1006</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>47798</v>
       </c>
       <c r="E7">
-        <v>306</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>506</v>
@@ -568,11 +676,17 @@
       <c r="B8">
         <v>107</v>
       </c>
+      <c r="C8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43582</v>
+      </c>
       <c r="D8">
-        <v>1007</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>75292</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>507</v>
@@ -585,11 +699,17 @@
       <c r="B9">
         <v>108</v>
       </c>
+      <c r="C9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43431</v>
+      </c>
       <c r="D9">
-        <v>1008</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>21026</v>
       </c>
       <c r="E9">
-        <v>308</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>508</v>
@@ -602,11 +722,17 @@
       <c r="B10">
         <v>109</v>
       </c>
+      <c r="C10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43517</v>
+      </c>
       <c r="D10">
-        <v>1009</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>28170</v>
       </c>
       <c r="E10">
-        <v>309</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>509</v>
@@ -619,11 +745,17 @@
       <c r="B11">
         <v>110</v>
       </c>
+      <c r="C11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43228</v>
+      </c>
       <c r="D11">
-        <v>1010</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>66841</v>
       </c>
       <c r="E11">
-        <v>310</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>510</v>
@@ -639,7 +771,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,20 +805,20 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f ca="1">RANDBETWEEN(0,50)</f>
-        <v>21</v>
+        <f ca="1">RANDBETWEEN(20,50)</f>
+        <v>35</v>
       </c>
       <c r="C2">
+        <f ca="1">RANDBETWEEN(10,50)</f>
+        <v>43</v>
+      </c>
+      <c r="D2">
         <f t="shared" ref="C2:D11" ca="1" si="0">RANDBETWEEN(0,50)</f>
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <f ca="1">SUM(B2:D2)</f>
-        <v>48</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -695,20 +827,20 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B10" ca="1" si="1">RANDBETWEEN(0,50)</f>
-        <v>6</v>
+        <f t="shared" ref="B3:B11" ca="1" si="1">RANDBETWEEN(20,50)</f>
+        <v>48</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="C3:C11" ca="1" si="2">RANDBETWEEN(10,50)</f>
+        <v>22</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E11" ca="1" si="2">SUM(B3:D3)</f>
-        <v>24</v>
+        <f t="shared" ref="E3:E11" ca="1" si="3">SUM(B3:D3)</f>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -718,19 +850,19 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -740,19 +872,19 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -762,19 +894,19 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
       <c r="E6">
-        <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -784,19 +916,19 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -806,19 +938,19 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -828,19 +960,19 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -850,19 +982,19 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="2"/>
-        <v>127</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -871,20 +1003,20 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f ca="1">RANDBETWEEN(0,50)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +1029,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,20 +1063,20 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f ca="1">RANDBETWEEN(0,50)</f>
-        <v>36</v>
+        <f ca="1">RANDBETWEEN(0,15)</f>
+        <v>11</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:D11" ca="1" si="0">RANDBETWEEN(0,50)</f>
-        <v>9</v>
+        <f ca="1">RANDBETWEEN(0,5)</f>
+        <v>5</v>
       </c>
       <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>5</v>
       </c>
       <c r="E2">
         <f ca="1">SUM(B2:D2)</f>
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -953,20 +1085,20 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B11" ca="1" si="1">RANDBETWEEN(0,50)</f>
-        <v>37</v>
+        <f t="shared" ref="B3:B11" ca="1" si="0">RANDBETWEEN(0,15)</f>
+        <v>6</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <f t="shared" ref="C3:C11" ca="1" si="1">RANDBETWEEN(0,5)</f>
+        <v>4</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <f t="shared" ref="D3:D11" ca="1" si="2">RANDBETWEEN(0,10)</f>
+        <v>8</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E10" ca="1" si="2">SUM(B3:D3)</f>
-        <v>90</v>
+        <f t="shared" ref="E3:E10" ca="1" si="3">SUM(B3:D3)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -975,20 +1107,20 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -997,20 +1129,20 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1019,20 +1151,20 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1041,20 +1173,20 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1063,20 +1195,20 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,20 +1217,20 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1107,20 +1239,20 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1129,20 +1261,20 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E11">
         <f ca="1">SUM(B11:D11)</f>
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1152,13 +1284,380 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC512E00-6BEB-4679-B477-746B69C71944}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f xml:space="preserve"> 'Премиальные баллы'!A3</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <f ca="1">'Сведения о сотрудниках'!E2 * $C$15 * ('Сведения о сотрудниках'!D2/$C$14)</f>
+        <v>5493.8292578875635</v>
+      </c>
+      <c r="C3" s="11">
+        <f ca="1">'Премиальные баллы'!E2 * $C$16</f>
+        <v>12500</v>
+      </c>
+      <c r="D3" s="1">
+        <f ca="1">-'Штрафные баллы'!E2 *$C$17</f>
+        <v>-2100</v>
+      </c>
+      <c r="E3" s="10">
+        <f ca="1">SUM(B3:D3)</f>
+        <v>15893.829257887563</v>
+      </c>
+      <c r="F3" s="10">
+        <f ca="1">E3/$E$12 * $C$18</f>
+        <v>3210.5142215074684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f xml:space="preserve"> 'Премиальные баллы'!A4</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <f ca="1">'Сведения о сотрудниках'!E3 * $C$15 * ('Сведения о сотрудниках'!D3/$C$14)</f>
+        <v>2796.6543214071326</v>
+      </c>
+      <c r="C4" s="11">
+        <f ca="1">'Премиальные баллы'!E3 * $C$16</f>
+        <v>9000</v>
+      </c>
+      <c r="D4" s="1">
+        <f ca="1">-'Штрафные баллы'!E3 *$C$17</f>
+        <v>-1800</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" ref="E4:E11" ca="1" si="0">SUM(B4:D4)</f>
+        <v>9996.6543214071316</v>
+      </c>
+      <c r="F4" s="10">
+        <f ca="1">E4/$E$12 * $C$18</f>
+        <v>2019.2994617986308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f xml:space="preserve"> 'Премиальные баллы'!A5</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <f ca="1">'Сведения о сотрудниках'!E4 * $C$15 * ('Сведения о сотрудниках'!D4/$C$14)</f>
+        <v>7941.9942690813541</v>
+      </c>
+      <c r="C5" s="11">
+        <f ca="1">'Премиальные баллы'!E4 * $C$16</f>
+        <v>6900</v>
+      </c>
+      <c r="D5" s="1">
+        <f ca="1">-'Штрафные баллы'!E4 *$C$17</f>
+        <v>-1400</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>13441.994269081355</v>
+      </c>
+      <c r="F5" s="10">
+        <f ca="1">E5/$E$12 * $C$18</f>
+        <v>2715.2496145565974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f xml:space="preserve"> 'Премиальные баллы'!A6</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <f ca="1">'Сведения о сотрудниках'!E5 * $C$15 * ('Сведения о сотрудниках'!D5/$C$14)</f>
+        <v>2347.4869657466238</v>
+      </c>
+      <c r="C6" s="11">
+        <f ca="1">'Премиальные баллы'!E5 * $C$16</f>
+        <v>9000</v>
+      </c>
+      <c r="D6" s="1">
+        <f ca="1">-'Штрафные баллы'!E5 *$C$17</f>
+        <v>-1400</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>9947.4869657466243</v>
+      </c>
+      <c r="F6" s="10">
+        <f ca="1">E6/$E$12 * $C$18</f>
+        <v>2009.3677774939415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f xml:space="preserve"> 'Премиальные баллы'!A7</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <f ca="1">'Сведения о сотрудниках'!E6 * $C$15 * ('Сведения о сотрудниках'!D6/$C$14)</f>
+        <v>3630.8087843883432</v>
+      </c>
+      <c r="C7" s="11">
+        <f ca="1">'Премиальные баллы'!E6 * $C$16</f>
+        <v>8500</v>
+      </c>
+      <c r="D7" s="1">
+        <f ca="1">-'Штрафные баллы'!E6 *$C$17</f>
+        <v>-1300</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>10830.808784388344</v>
+      </c>
+      <c r="F7" s="10">
+        <f ca="1">E7/$E$12 * $C$18</f>
+        <v>2187.796601341392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f xml:space="preserve"> 'Премиальные баллы'!A8</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <f ca="1">'Сведения о сотрудниках'!E7 * $C$15 * ('Сведения о сотрудниках'!D7/$C$14)</f>
+        <v>1804.5220647918484</v>
+      </c>
+      <c r="C8" s="11">
+        <f ca="1">'Премиальные баллы'!E7 * $C$16</f>
+        <v>7900</v>
+      </c>
+      <c r="D8" s="1">
+        <f ca="1">-'Штрафные баллы'!E7 *$C$17</f>
+        <v>-2600</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>7104.5220647918486</v>
+      </c>
+      <c r="F8" s="10">
+        <f ca="1">E8/$E$12 * $C$18</f>
+        <v>1435.0958951385753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f xml:space="preserve"> 'Премиальные баллы'!A9</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <f ca="1">'Сведения о сотрудниках'!E8 * $C$15 * ('Сведения о сотрудниках'!D8/$C$14)</f>
+        <v>7816.8899761778011</v>
+      </c>
+      <c r="C9" s="11">
+        <f ca="1">'Премиальные баллы'!E8 * $C$16</f>
+        <v>5900</v>
+      </c>
+      <c r="D9" s="1">
+        <f ca="1">-'Штрафные баллы'!E8 *$C$17</f>
+        <v>-400</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>13316.889976177801</v>
+      </c>
+      <c r="F9" s="10">
+        <f ca="1">E9/$E$12 * $C$18</f>
+        <v>2689.9788566403345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f xml:space="preserve"> 'Премиальные баллы'!A10</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <f ca="1">'Сведения о сотрудниках'!E9 * $C$15 * ('Сведения о сотрудниках'!D9/$C$14)</f>
+        <v>1786.0419285787093</v>
+      </c>
+      <c r="C10" s="11">
+        <f ca="1">'Премиальные баллы'!E9 * $C$16</f>
+        <v>11300</v>
+      </c>
+      <c r="D10" s="1">
+        <f ca="1">-'Штрафные баллы'!E9 *$C$17</f>
+        <v>-2000</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>11086.04192857871</v>
+      </c>
+      <c r="F10" s="10">
+        <f ca="1">E10/$E$12 * $C$18</f>
+        <v>2239.3530655469317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f xml:space="preserve"> 'Премиальные баллы'!A11</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <f ca="1">'Сведения о сотрудниках'!E10 * $C$15 * ('Сведения о сотрудниках'!D10/$C$14)</f>
+        <v>2392.8850531752232</v>
+      </c>
+      <c r="C11" s="11">
+        <f ca="1">'Премиальные баллы'!E10 * $C$16</f>
+        <v>6600</v>
+      </c>
+      <c r="D11" s="1">
+        <f ca="1">-'Штрафные баллы'!E10 *$C$17</f>
+        <v>-1600</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>7392.8850531752232</v>
+      </c>
+      <c r="F11" s="10">
+        <f ca="1">E11/$E$12 * $C$18</f>
+        <v>1493.3445059761291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="11">
+        <f ca="1">SUM(E3:E11)</f>
+        <v>99011.112621234599</v>
+      </c>
+      <c r="F12" s="1">
+        <f ca="1">SUM(F3:F11)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1">
+        <f ca="1">AVERAGE('Сведения о сотрудниках'!D2:D11)</f>
+        <v>52975.8</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1">
+        <v>500</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A15:B15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
